--- a/Characterization/SampleTBP.xlsx
+++ b/Characterization/SampleTBP.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\source\repos\pravindalve\Characterization\Characterization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{71328FD4-6BC4-48C1-9A39-86139A559F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BB210F-E075-4F66-85C3-7D4BDC4D8A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14040" xr2:uid="{88C9E80D-8CF8-4420-B174-9A6286FA8649}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,108 +380,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67A2D18-DE38-424F-9863-DC6C71C3FDE4}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D1" sqref="D1:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2.9</v>
       </c>
       <c r="B1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <f>A1</f>
+        <v>2.9</v>
+      </c>
+      <c r="E1">
+        <f>B1+273.15</f>
+        <v>288.14999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7.6885975443164396</v>
       </c>
       <c r="B2">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <f t="shared" ref="D2:D12" si="0">A2</f>
+        <v>7.6885975443164396</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E12" si="1">B2+273.15</f>
+        <v>338.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>15.153805038199399</v>
       </c>
       <c r="B3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>15.153805038199399</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>373.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>31.582335225260799</v>
       </c>
       <c r="B4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>31.582335225260799</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>423.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>42.406296798842803</v>
       </c>
       <c r="B5">
         <v>200</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>42.406296798842803</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>473.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>52.846476735469203</v>
       </c>
       <c r="B6">
         <v>250</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>52.846476735469203</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>523.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>62.737740650283698</v>
       </c>
       <c r="B7">
         <v>300</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>62.737740650283698</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>573.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>71.239421784397905</v>
       </c>
       <c r="B8">
         <v>350</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>71.239421784397905</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>623.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>74.0267929538375</v>
       </c>
       <c r="B9">
         <v>370</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>74.0267929538375</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>643.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>83.478818358673095</v>
       </c>
       <c r="B10">
         <v>450</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>83.478818358673095</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>723.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>88.454307786366599</v>
       </c>
       <c r="B11">
         <v>500</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>88.454307786366599</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>773.15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>92.486636460125993</v>
       </c>
       <c r="B12">
         <v>550</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>92.486636460125993</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>823.15</v>
       </c>
     </row>
   </sheetData>
